--- a/testes/Tabela_Resultados_Teste.xlsx
+++ b/testes/Tabela_Resultados_Teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86CF3C-9FAB-4026-A619-0157FA4B573B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64661C66-0F90-4DEE-A25E-570BAB3233A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{BD8870E6-5BAF-48E2-97AA-8D70593EEDB5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>RNN</t>
   </si>
@@ -63,10 +63,19 @@
     <t>Últimos 3 Meses (Última Amostra)</t>
   </si>
   <si>
-    <t>Conjunto de Teste (36 Amostras)</t>
-  </si>
-  <si>
     <t>0.952</t>
+  </si>
+  <si>
+    <t>Conjunto de Teste (48 Amostras)</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>8.37</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +557,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -590,7 +602,10 @@
       <c r="C3" s="4">
         <v>6392</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -600,6 +615,9 @@
       <c r="C4" s="4">
         <v>5526</v>
       </c>
+      <c r="D4" s="17">
+        <v>5805</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -611,6 +629,9 @@
       </c>
       <c r="C5" s="6">
         <v>7128</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -622,6 +643,9 @@
       <c r="C6" s="6">
         <v>5453</v>
       </c>
+      <c r="D6" s="17">
+        <v>8274</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,6 +657,9 @@
       </c>
       <c r="C7" s="8">
         <v>6232</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -643,6 +670,9 @@
       </c>
       <c r="C8" s="8">
         <v>5268</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6665</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -761,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>

--- a/testes/Tabela_Resultados_Teste.xlsx
+++ b/testes/Tabela_Resultados_Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64661C66-0F90-4DEE-A25E-570BAB3233A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2452597-D13F-4029-A402-98F775AF97DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{BD8870E6-5BAF-48E2-97AA-8D70593EEDB5}"/>
   </bookViews>
@@ -225,6 +225,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -236,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,11 +574,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -593,7 +593,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -602,26 +602,26 @@
       <c r="C3" s="4">
         <v>6392</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>5526</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>5805</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -636,20 +636,20 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6">
         <v>5453</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>8274</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -658,20 +658,20 @@
       <c r="C7" s="8">
         <v>6232</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="8">
         <v>5268</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <v>6665</v>
       </c>
       <c r="E8" s="1"/>
@@ -685,11 +685,11 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -707,7 +707,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -724,7 +724,7 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -754,7 +754,7 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -786,7 +786,7 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
